--- a/Results/Overlap_Trophoblast_Organoid_final_Secretome_list.xlsx
+++ b/Results/Overlap_Trophoblast_Organoid_final_Secretome_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marta/Desktop/Universitat/3_ANY/TFG/TFG_GitHub/Table_Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marta/Documents/GitHub/FGP_Marta_Ibanez/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE04D2E-7DB3-F24B-A630-9B5C8B111995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282908C1-ED8F-CD4B-95D2-BEF82AB357ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,13 +401,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,468 +742,469 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>113</v>
       </c>
     </row>
